--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/93/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/93/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08408408408408408</v>
+        <v>0.5997599759975998</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.7507507507509</v>
+        <v>1491.319131913191</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0901901901901902</v>
+        <v>0.05883588358835884</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1301301301301301</v>
+        <v>0.7900790079007901</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>568.5685685685686</v>
+        <v>1814.731473147315</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>402.4024024024025</v>
+        <v>686.0486048604861</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.0940940940941</v>
+        <v>85.32403240324032</v>
       </c>
     </row>
   </sheetData>
